--- a/report/reliability/by-unidade/Faculdade de Nutrição - FANUT.xlsx
+++ b/report/reliability/by-unidade/Faculdade de Nutrição - FANUT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="481">
+  <fonts count="480">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -983,11 +983,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3137,7 +3132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3400,6 +3395,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3423,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3438,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3454,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3468,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3484,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3513,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3554,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3569,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3585,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3599,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3615,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,19 +3644,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3688,14 +3684,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3704,6 +3699,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3719,14 +3715,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3734,6 +3729,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3749,20 +3745,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3778,19 +3774,19 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3818,14 +3814,13 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3834,6 +3829,7 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3849,14 +3845,13 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3864,6 +3859,7 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3879,20 +3875,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3908,19 +3904,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3948,14 +3944,13 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3964,6 +3959,7 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3979,14 +3975,13 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3994,6 +3989,7 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4009,20 +4005,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4038,21 +4034,19 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4128,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7471888847157496</v>
+        <v>0.6881289888140218</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7622738180834109</v>
+        <v>0.7099969453218041</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8808137741144704</v>
+        <v>0.8609134370088717</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2108648266204907</v>
+        <v>0.16944898605929617</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.2065202576250953</v>
+        <v>2.4482395404753854</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.038123581213368854</v>
+        <v>0.04552494368191014</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5263605442176873</v>
+        <v>1.96343537414966</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6378655139714164</v>
+        <v>0.5480970838329794</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1937877860792664</v>
+        <v>0.14905721468613176</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7217381510182016</v>
+        <v>0.6571513088128593</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.732717253386093</v>
+        <v>0.6798844987133662</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8606212207417179</v>
+        <v>0.8482221964614516</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19949678010776145</v>
+        <v>0.1618327570944588</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.741356345175961</v>
+        <v>2.1238724647220137</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.04220475823083852</v>
+        <v>0.05025697552833197</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05358005294116529</v>
+        <v>0.09230305243810318</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1866075137701925</v>
+        <v>0.1524316552990296</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7147041270908634</v>
+        <v>0.6490587668814344</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7257103335610766</v>
+        <v>0.6739284325763802</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8580365070318211</v>
+        <v>0.8460396410406519</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.1938900265309616</v>
+        <v>0.15817258979553775</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.645780801671839</v>
+        <v>2.0668113994153865</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.04319960922455099</v>
+        <v>0.0513986510343944</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05426807670748996</v>
+        <v>0.09273087578834796</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.17490700073360674</v>
+        <v>0.14362660993827506</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7147969926093887</v>
+        <v>0.6847378190603007</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7292804591177067</v>
+        <v>0.693623328848249</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8488112269213467</v>
+        <v>0.8399359500474664</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.1967202638906103</v>
+        <v>0.17068482963905982</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.693859692362553</v>
+        <v>2.2639560846481386</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.043153227516964855</v>
+        <v>0.046587764061509794</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05094007008275018</v>
+        <v>0.06467510633895573</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1866075137701925</v>
+        <v>0.15709846892746093</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7157463867770312</v>
+        <v>0.6821279451237698</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7318598205228439</v>
+        <v>0.6915086005729566</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8487051026881444</v>
+        <v>0.8365349504312313</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.1987992241331151</v>
+        <v>0.16928351528156466</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.7293925958798493</v>
+        <v>2.2415814569134995</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.04297688707012093</v>
+        <v>0.045248415389887574</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05215069458197813</v>
+        <v>0.06329645017997136</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1866075137701925</v>
+        <v>0.16432248897800159</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7489569181883075</v>
+        <v>0.6856737818025012</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7656070345505873</v>
+        <v>0.6909305816988227</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8485592850015209</v>
+        <v>0.8351269591514907</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22895428841382393</v>
+        <v>0.1689030151821628</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.2663396407082965</v>
+        <v>2.2355190801360196</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03759266992093585</v>
+        <v>0.044430815352647354</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03834574484638255</v>
+        <v>0.06355405371617619</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2088781598811844</v>
+        <v>0.16432248897800159</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7520876560032208</v>
+        <v>0.688569695919605</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.765338418980414</v>
+        <v>0.7227953210907644</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.848401802978368</v>
+        <v>0.8581580487615597</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.228690253792718</v>
+        <v>0.1916188641087047</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.2614559897494892</v>
+        <v>2.6074427168216268</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.0369604221764958</v>
+        <v>0.04653384292267573</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.038554254205449535</v>
+        <v>0.07797533308234617</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2088781598811844</v>
+        <v>0.16470814583463278</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7339154975238626</v>
+        <v>0.6688331567172967</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7562584156623702</v>
+        <v>0.6983033379621865</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8653884218219252</v>
+        <v>0.8386888846876064</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2200078344084079</v>
+        <v>0.17383847165163943</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.1027057517391223</v>
+        <v>2.314587550440527</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0404657910514935</v>
+        <v>0.048349088733191145</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04354313759616299</v>
+        <v>0.07227596648182882</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.17490700073360674</v>
+        <v>0.14563737123238849</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7334677565355928</v>
+        <v>0.6679015955756151</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7478656140721508</v>
+        <v>0.6877655046048045</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8651103487191449</v>
+        <v>0.8479063139700325</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.21238073984214215</v>
+        <v>0.16683841655353623</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.9661389156422295</v>
+        <v>2.202721079022031</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04048471660613929</v>
+        <v>0.04829505967924339</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04914964705013075</v>
+        <v>0.0817035300675744</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.18936152474417817</v>
+        <v>0.14563737123238849</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7485984553723088</v>
+        <v>0.685747467202017</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7592638200430747</v>
+        <v>0.7038037134574281</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8892988281164576</v>
+        <v>0.8707558841084675</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.22283040801216283</v>
+        <v>0.17764015902299557</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.153924849097997</v>
+        <v>2.376139558239435</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03801778922916483</v>
+        <v>0.04578579510364899</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05815910907668788</v>
+        <v>0.09472239261107031</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2088781598811844</v>
+        <v>0.14568277407323388</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7416871313301081</v>
+        <v>0.682497879748248</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7598503255888405</v>
+        <v>0.7108744227603657</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8879821001318856</v>
+        <v>0.872299112741865</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22338705068709347</v>
+        <v>0.18268509302399047</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.164069772120127</v>
+        <v>2.4587047245950706</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03943660197240652</v>
+        <v>0.04683398013021518</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05627260246961559</v>
+        <v>0.0932413000569971</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19857739196708996</v>
+        <v>0.15709846892746093</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7151914254073723</v>
+        <v>0.630280234873113</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7347068801327535</v>
+        <v>0.6708096187532304</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8485295429478534</v>
+        <v>0.8211636962725671</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.20112803668455567</v>
+        <v>0.1562965173647584</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.769415507271365</v>
+        <v>2.0377558305701946</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.04310629564526302</v>
+        <v>0.054611873367425304</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05182842595344978</v>
+        <v>0.0866944997618774</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17490700073360674</v>
+        <v>0.14563737123238849</v>
       </c>
     </row>
     <row r="22">
@@ -4521,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7187279471247355</v>
+        <v>0.6340803195029954</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7382685713966519</v>
+        <v>0.6696292932159998</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8539534123214457</v>
+        <v>0.8256788895064147</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.20409301294253598</v>
+        <v>0.15559360399314573</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.8207104333484216</v>
+        <v>2.0269027473244177</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.04250513577318907</v>
+        <v>0.053813898819316225</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.052664346958530214</v>
+        <v>0.08840492162136782</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.19821404741435464</v>
+        <v>0.12603521244003382</v>
       </c>
     </row>
     <row r="23">
@@ -4592,16 +4586,16 @@
         <v>98.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5870099067921171</v>
+        <v>0.5418704430194774</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6250176634589844</v>
+        <v>0.5599846091539329</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5876620462912542</v>
+        <v>0.4926189920575592</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.5024437242966724</v>
+        <v>0.43518053484700264</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.683673469387755</v>
@@ -4618,16 +4612,16 @@
         <v>98.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6419603072587794</v>
+        <v>0.591180599148755</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6738768623953724</v>
+        <v>0.5943238850375309</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6400214655868635</v>
+        <v>0.5300980391226409</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5585320397311794</v>
+        <v>0.4830208066822738</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.112244897959184</v>
@@ -4644,22 +4638,22 @@
         <v>98.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6270089075282449</v>
+        <v>0.3389328196902407</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.649213190575645</v>
+        <v>0.4769354651051662</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6358907617851238</v>
+        <v>0.4981316539249344</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5288748733773768</v>
+        <v>0.301123242907057</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.663265306122449</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.083559212993123</v>
+        <v>0.27521198531482954</v>
       </c>
     </row>
     <row r="30">
@@ -4670,22 +4664,22 @@
         <v>98.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6153749358661117</v>
+        <v>0.3652351392016005</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.631096408612961</v>
+        <v>0.490082438014262</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6170671753415062</v>
+        <v>0.5224446745957643</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5017451346082927</v>
+        <v>0.22593901977930345</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.091836734693878</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2106634007753174</v>
+        <v>0.982114405800246</v>
       </c>
     </row>
     <row r="31">
@@ -4696,22 +4690,22 @@
         <v>98.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.3146742891018544</v>
+        <v>0.37080390790259693</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.3683147000093766</v>
+        <v>0.4936522469382824</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.386807103893007</v>
+        <v>0.526473297858716</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.19266263089652935</v>
+        <v>0.20998195906723255</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.2755102040816326</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.982114405800246</v>
+        <v>1.1269605027474512</v>
       </c>
     </row>
     <row r="32">
@@ -4722,22 +4716,22 @@
         <v>98.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.3193270464746828</v>
+        <v>0.23060449734754374</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.37061558944601763</v>
+        <v>0.2805347199201586</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.3892457298143768</v>
+        <v>0.2246939609792393</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.17868176298210178</v>
+        <v>0.19043922365010282</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.3163265306122449</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.1269605027474512</v>
+        <v>0.27521198531482954</v>
       </c>
     </row>
     <row r="33">
@@ -4748,16 +4742,16 @@
         <v>98.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4927951531490276</v>
+        <v>0.4932278565830959</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.44627720897973866</v>
+        <v>0.44734835220461616</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.408781253334068</v>
+        <v>0.430764172709955</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.35162390683007533</v>
+        <v>0.3261082341729255</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.877551020408163</v>
@@ -4774,16 +4768,16 @@
         <v>98.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5713274216823597</v>
+        <v>0.5792326633479571</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5127423613384627</v>
+        <v>0.5130220779069942</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.47126280087623024</v>
+        <v>0.4727371828361959</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3886097163220916</v>
+        <v>0.3626092341871426</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.0918367346938775</v>
@@ -4800,16 +4794,16 @@
         <v>98.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.451456330316277</v>
+        <v>0.4716985712529683</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.42168032179191706</v>
+        <v>0.41168135099768444</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.30471514148662515</v>
+        <v>0.28678205007417135</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.26905216945315424</v>
+        <v>0.25894680178497265</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>1.4591836734693877</v>
@@ -4826,16 +4820,16 @@
         <v>98.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.43977067636308637</v>
+        <v>0.42549837138569035</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.41682954409705686</v>
+        <v>0.3643503504377438</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.30959736507802127</v>
+        <v>0.2373075629106725</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.28931175453993646</v>
+        <v>0.2459220531815025</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.622448979591837</v>
@@ -4852,16 +4846,16 @@
         <v>98.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.620337871718024</v>
+        <v>0.6726246993584866</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6108023268100403</v>
+        <v>0.6119249845274736</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6024313001156512</v>
+        <v>0.6084871521276753</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4971511289708847</v>
+        <v>0.5391400529997561</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.173469387755102</v>
@@ -4878,16 +4872,16 @@
         <v>98.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5952330435509247</v>
+        <v>0.6573253523525285</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.584964493410376</v>
+        <v>0.6185196383284608</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.569901540252915</v>
+        <v>0.6088767836555916</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4756791083886574</v>
+        <v>0.5294438691546346</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>1.9489795918367347</v>
@@ -4992,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.030612244897959183</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.030612244897959183</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02040816326530612</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.25510204081632654</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4897959183673469</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.17346938775510204</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5018,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.030612244897959183</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="C46" t="n" s="110">
         <v>0.01020408163265306</v>
       </c>
       <c r="D46" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.01020408163265306</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.11224489795918367</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.5510204081632653</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5053,13 +5047,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.030612244897959183</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="F47" t="n" s="113">
         <v>0.030612244897959183</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.01020408163265306</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5070,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="C48" t="n" s="110">
         <v>0.9183673469387755</v>
-      </c>
-      <c r="C48" t="n" s="110">
-        <v>0.01020408163265306</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.01020408163265306</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.030612244897959183</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.030612244897959183</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5323,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8063257185716284</v>
+        <v>0.8792772083207718</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8082160347246847</v>
+        <v>0.9856383444954772</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.825035437919652</v>
+        <v>0.9814974869699566</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5130384118406401</v>
+        <v>0.9581180225503907</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.214200251644871</v>
+        <v>68.62985567263337</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03172468043538477</v>
+        <v>0.0036297237598927794</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8877551020408165</v>
+        <v>0.22448979591836735</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8304160311359091</v>
+        <v>0.7876124406777624</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5307093029406033</v>
+        <v>0.9463033003331016</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7886916005540865</v>
+        <v>0.9863523573200994</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7852579149701654</v>
+        <v>0.9910683882262705</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7434345266787725</v>
+        <v>0.9822949114300671</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5493295633608782</v>
+        <v>0.982294911430067</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.6567490478686</v>
+        <v>110.9618748926465</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.0357394065918217</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.026260466131466344</v>
-      </c>
+        <v>0.0022199293918887548</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5221717289181145</v>
+        <v>0.9822949114300671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7735664397882468</v>
+        <v>0.6074130517607361</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7730497169735799</v>
+        <v>0.9724109291405361</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7494116622536664</v>
+        <v>0.9463033003331016</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5317074186664046</v>
+        <v>0.9463033003331016</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.4062513897970637</v>
+        <v>35.246236964409015</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03844901205604414</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.03818697598198537</v>
-      </c>
+        <v>0.013133718750687327</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.539246876963092</v>
+        <v>0.9463033003331016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7137567693824939</v>
+        <v>0.6590277306936063</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7276445931458321</v>
+        <v>0.9721218137682333</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.6615791891441057</v>
+        <v>0.9457558558880035</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.4710555443054094</v>
+        <v>0.9457558558880035</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>2.671673022946255</v>
+        <v>34.87033932862228</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04982909716186668</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.014698276445673987</v>
-      </c>
+        <v>0.013353396544528462</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5221717289181145</v>
+        <v>0.9457558558880036</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7427780121421104</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7500458379707371</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6769901465004673</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5000611210298681</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.000733542028106</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.04533566085341152</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.007219233187138782</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.539246876963092</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5478,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>98.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9609205245215596</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9777666225403755</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9538287288398541</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9502438380672047</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.27521198531482954</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>98.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.727416036643134</v>
+        <v>0.9943153080602569</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7625674817524047</v>
+        <v>0.989934906147703</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6617348034204906</v>
+        <v>0.9881027616716012</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.5558623163562542</v>
+        <v>0.9834896531365693</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.683673469387755</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.892083611904779</v>
+        <v>0.982114405800246</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>98.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7612082384370155</v>
+        <v>0.9954644249388188</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7791560466532513</v>
+        <v>0.9901199898120397</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.673991399516812</v>
+        <v>0.9883987040285503</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5881366095543655</v>
+        <v>0.9835816639036253</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.112244897959184</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9619852010481016</v>
+        <v>1.1269605027474512</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>98.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8512259354493151</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.836250547444116</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7972531232648052</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7072527870244074</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.663265306122449</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.083559212993123</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>98.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8409632550042057</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8089462152914547</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.761746947743177</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6608835630424712</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.091836734693878</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2106634007753174</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04081632653061224</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.02040816326530612</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.29591836734693877</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.25510204081632654</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24489795918367346</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.45918367346938777</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.25510204081632654</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4897959183673469</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.17346938775510204</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.11224489795918367</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5510204081632653</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,7 +5715,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5835,66 +5730,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8123935525186325</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8346056382505926</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7161572645655689</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7161572645655689</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>5.046155318856166</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.034640674652624916</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.9846938775510203</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.3893076255886707</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.716157264565569</v>
+      <c r="A6" t="n" s="260">
+        <v>0.703916236387814</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.8445097167677047</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.7987412725084979</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.6441817204393433</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>5.431270039594992</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.026394507236570115</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.295918367346939</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.9877632211847995</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.6788286559936717</v>
       </c>
     </row>
     <row r="7">
@@ -5908,86 +5803,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.8123935525186325</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8346056382505926</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.7161572645655689</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.7161572645655689</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>5.046155318856166</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.034640674652624916</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.716157264565569</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.716157264565569</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.716157264565569</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5128812275900382</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.716157264565569</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.716157264565569</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.716157264565569</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.28678754177881616</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6992371110117388</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5375592407587889</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.537559240758789</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.3248782898844604</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.03837729439714996</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.537559240758789</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.5128812275900382</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.716157264565569</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5128812275900382</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.716157264565569</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.43865448181994937</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.8086931963784998</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.6788286559936714</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.6788286559936716</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>4.227205625046647</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.03591170931068801</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.6788286559936717</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +5921,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>98.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.6965535348256817</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8459070453995986</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7185556942381714</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6438019455152767</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.27521198531482954</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B19" t="n" s="313">
         <v>98.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.901421573889788</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9263253382493564</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7839127796367423</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7161572645655689</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C19" t="n" s="314">
+        <v>0.9082897119907746</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9140708026796147</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8666066056991787</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.7535968164372931</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.877551020408163</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.2703218694524854</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
+      <c r="B20" t="n" s="313">
         <v>98.0</v>
       </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9477269906066924</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9263253382493564</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7839127796367424</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.7161572645655688</v>
-      </c>
-      <c r="G18" t="n" s="319">
+      <c r="C20" t="n" s="314">
+        <v>0.9385891126787786</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8601538895698807</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.7565103885885462</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.7189857277405705</v>
+      </c>
+      <c r="G20" t="n" s="318">
         <v>3.0918367346938775</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="319">
         <v>1.723618434907249</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.08163265306122448</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.11224489795918367</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.02040816326530612</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.4387755102040816</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.32653061224489793</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.02040816326530612</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="338">
         <v>0.08163265306122448</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.1326530612244898</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.20408163265306123</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.11224489795918367</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.1326530612244898</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.336734693877551</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,7 +6175,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6208,66 +6190,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.895749279538905</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8966931963824591</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.8127324090111349</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>8.67990456564863</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.020944188863486646</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.061224489795918</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.208358574236203</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.812732409011135</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7152952261306533</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.7166019591139217</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.5583629834896492</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.5583629834896493</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>2.5286059031084993</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.05728225282268835</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>3.8979591836734695</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8184697302574973</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.5583629834896493</v>
       </c>
     </row>
     <row r="7">
@@ -6281,81 +6263,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6605339686570426</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.812732409011135</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.5583629834896493</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.5583629834896493</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.3117692213314621</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.5583629834896493</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.5583629834896493</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.5583629834896493</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6605339686570426</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6605339686570426</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.812732409011135</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.3117692213314621</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.5583629834896493</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.3117692213314621</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.5583629834896493</v>
       </c>
     </row>
     <row r="13">
@@ -6369,84 +6351,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
         <v>98.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9550236787660855</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9520326698730288</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8582733765147844</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.812732409011135</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.173469387755102</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3083830439801942</v>
+      <c r="C17" t="n" s="429">
+        <v>0.8731053122668585</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.8827125759525717</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.6595954081181552</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.5583629834896494</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.683673469387755</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>0.892083611904779</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>98.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9489478216186747</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9520326698730288</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8582733765147844</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.8127324090111349</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.9489795918367347</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.22997317026804</v>
+      <c r="C18" t="n" s="429">
+        <v>0.891964366021282</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8827125759525717</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.6595954081181553</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.5583629834896494</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>4.112244897959184</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.9619852010481016</v>
       </c>
     </row>
     <row r="19">
@@ -6460,74 +6442,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.16326530612244897</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3163265306122449</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.23469387755102042</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="D23" t="n" s="455">
+        <v>0.29591836734693877</v>
+      </c>
+      <c r="E23" t="n" s="456">
+        <v>0.5</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.09183673469387756</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4489795918367347</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1326530612244898</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="D24" t="n" s="455">
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="E24" t="n" s="456">
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="F24" t="n" s="457">
+        <v>0.45918367346938777</v>
+      </c>
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6557,7 +6539,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6572,66 +6554,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9863523573200994</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9910683882262705</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.982294911430067</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>110.9618748926465</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0022199293918887548</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.29591836734693877</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.0498815217738884</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9822949114300671</v>
+      <c r="A6" t="n" s="489">
+        <v>0.18451539983046028</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.18733258475305226</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.10334636303236644</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.10334636303236633</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>0.23051568358518085</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.16199460693316356</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.056822385051116</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.10334636303236633</v>
       </c>
     </row>
     <row r="7">
@@ -6645,81 +6627,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9649032930214033</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9822949114300671</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.10334636303236634</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.10334636303236634</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.010680470752017945</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.10334636303236634</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.10334636303236634</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.10334636303236634</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9649032930214033</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9649032930214033</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9822949114300671</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.010680470752017945</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.10334636303236634</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.010680470752017945</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.10334636303236634</v>
       </c>
     </row>
     <row r="13">
@@ -6733,84 +6715,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>98.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9949322517372912</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9955638883140717</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9867112557510102</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9822949114300669</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.2755102040816326</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>0.982114405800246</v>
+      <c r="C17" t="n" s="543">
+        <v>0.7952178302187546</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.7427470508296772</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.23877482466163008</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.10334636303236637</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.4591836734693877</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.547651145771891</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>98.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9961535862032633</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9955638883140717</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9867112557510102</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9822949114300671</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.3163265306122449</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.1269605027474512</v>
+      <c r="C18" t="n" s="543">
+        <v>0.6852601093773304</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.7427470508296772</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.23877482466162966</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.10334636303236637</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.622448979591837</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.2884523291866785</v>
       </c>
     </row>
     <row r="19">
@@ -6824,74 +6806,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="567">
+      <c r="C22" t="s" s="566">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="F22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s" s="567">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.9183673469387755</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.46938775510204084</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.09183673469387756</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.05102040816326531</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="C24" t="n" s="568">
         <v>0.030612244897959183</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.9183673469387755</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="G24" t="n" s="573">
+      <c r="D24" t="n" s="569">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6921,7 +6903,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="575">
+      <c r="A1" t="s" s="574">
         <v>48</v>
       </c>
     </row>
@@ -6936,66 +6918,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="589">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="603">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="603">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="603">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="603">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="603">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="603">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="603">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="603">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="603">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="604">
-        <v>0.18451539983046028</v>
-      </c>
-      <c r="B6" t="n" s="605">
-        <v>0.18733258475305226</v>
-      </c>
-      <c r="C6" t="n" s="606">
-        <v>0.10334636303236644</v>
-      </c>
-      <c r="D6" t="n" s="607">
-        <v>0.10334636303236633</v>
-      </c>
-      <c r="E6" t="n" s="608">
-        <v>0.23051568358518085</v>
-      </c>
-      <c r="F6" t="n" s="609">
-        <v>0.16199460693316356</v>
-      </c>
-      <c r="G6" t="n" s="610">
-        <v>2.0408163265306123</v>
-      </c>
-      <c r="H6" t="n" s="611">
-        <v>1.056822385051116</v>
-      </c>
-      <c r="I6" t="n" s="612">
-        <v>0.10334636303236633</v>
+      <c r="A6" t="n" s="603">
+        <v>0.895749279538905</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.8966931963824591</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.8127324090111349</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>8.67990456564863</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.020944188863486646</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>2.061224489795918</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>1.208358574236203</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.812732409011135</v>
       </c>
     </row>
     <row r="7">
@@ -7009,81 +6991,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="616">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="630">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="630">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="630">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="630">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="630">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="630">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="630">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="630">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="626">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="631">
-        <v>0.10334636303236634</v>
-      </c>
-      <c r="C11" t="n" s="632">
-        <v>0.10334636303236634</v>
-      </c>
-      <c r="D11" t="n" s="633">
-        <v>0.010680470752017945</v>
-      </c>
-      <c r="E11" t="n" s="634">
-        <v>0.10334636303236634</v>
-      </c>
-      <c r="F11" s="635"/>
-      <c r="G11" s="636"/>
-      <c r="H11" t="n" s="637">
-        <v>0.10334636303236634</v>
-      </c>
-      <c r="I11" t="n" s="638">
-        <v>0.10334636303236634</v>
+      <c r="A11" t="s" s="625">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.6605339686570426</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.812732409011135</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="626">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="631">
-        <v>0.010680470752017945</v>
-      </c>
-      <c r="C12" t="n" s="632">
-        <v>0.10334636303236634</v>
-      </c>
-      <c r="D12" s="633"/>
-      <c r="E12" s="634"/>
-      <c r="F12" s="635"/>
-      <c r="G12" s="636"/>
-      <c r="H12" t="n" s="637">
-        <v>0.010680470752017945</v>
-      </c>
-      <c r="I12" t="n" s="638">
-        <v>0.10334636303236634</v>
+      <c r="A12" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.6605339686570426</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.6605339686570426</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.812732409011135</v>
       </c>
     </row>
     <row r="13">
@@ -7097,84 +7079,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="642">
+      <c r="A15" t="s" s="641">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="656">
+      <c r="B16" t="s" s="655">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="656">
+      <c r="C16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="656">
+      <c r="D16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="656">
+      <c r="E16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="656">
+      <c r="F16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="656">
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="656">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="652">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="657">
+      <c r="A17" t="s" s="651">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>98.0</v>
       </c>
-      <c r="C17" t="n" s="658">
-        <v>0.7952178302187546</v>
-      </c>
-      <c r="D17" t="n" s="659">
-        <v>0.7427470508296772</v>
-      </c>
-      <c r="E17" t="n" s="660">
-        <v>0.23877482466163008</v>
-      </c>
-      <c r="F17" t="n" s="661">
-        <v>0.10334636303236637</v>
-      </c>
-      <c r="G17" t="n" s="662">
-        <v>1.4591836734693877</v>
-      </c>
-      <c r="H17" t="n" s="663">
-        <v>1.547651145771891</v>
+      <c r="C17" t="n" s="657">
+        <v>0.9550236787660855</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.9520326698730288</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.8582733765147844</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.812732409011135</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>2.173469387755102</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.3083830439801942</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="652">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="657">
+      <c r="A18" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>98.0</v>
       </c>
-      <c r="C18" t="n" s="658">
-        <v>0.6852601093773304</v>
-      </c>
-      <c r="D18" t="n" s="659">
-        <v>0.7427470508296772</v>
-      </c>
-      <c r="E18" t="n" s="660">
-        <v>0.23877482466162966</v>
-      </c>
-      <c r="F18" t="n" s="661">
-        <v>0.10334636303236637</v>
-      </c>
-      <c r="G18" t="n" s="662">
-        <v>2.622448979591837</v>
-      </c>
-      <c r="H18" t="n" s="663">
-        <v>1.2884523291866785</v>
+      <c r="C18" t="n" s="657">
+        <v>0.9489478216186747</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.9520326698730288</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.8582733765147844</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.8127324090111349</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>1.9489795918367347</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.22997317026804</v>
       </c>
     </row>
     <row r="19">
@@ -7188,74 +7170,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="667">
+      <c r="A21" t="s" s="666">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="681">
+      <c r="B22" t="s" s="680">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="681">
+      <c r="C22" t="s" s="680">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="681">
+      <c r="D22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="681">
+      <c r="E22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="681">
+      <c r="F22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="681">
+      <c r="G22" t="s" s="680">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="677">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="682">
-        <v>0.46938775510204084</v>
-      </c>
-      <c r="C23" t="n" s="683">
+      <c r="A23" t="s" s="676">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="681">
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="D23" t="n" s="683">
+        <v>0.3163265306122449</v>
+      </c>
+      <c r="E23" t="n" s="684">
+        <v>0.23469387755102042</v>
+      </c>
+      <c r="F23" t="n" s="685">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="G23" t="n" s="686">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="681">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="C24" t="n" s="682">
         <v>0.09183673469387756</v>
       </c>
-      <c r="D23" t="n" s="684">
-        <v>0.05102040816326531</v>
-      </c>
-      <c r="E23" t="n" s="685">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F23" t="n" s="686">
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="G23" t="n" s="687">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="677">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="682">
-        <v>0.15306122448979592</v>
-      </c>
-      <c r="C24" t="n" s="683">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="D24" t="n" s="684">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.5306122448979592</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G24" t="n" s="687">
+      <c r="D24" t="n" s="683">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="E24" t="n" s="684">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F24" t="n" s="685">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="G24" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
@@ -7285,7 +7267,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="689">
+      <c r="A1" t="s" s="688">
         <v>49</v>
       </c>
     </row>
@@ -7300,66 +7282,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="702">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="717">
+      <c r="A5" t="s" s="716">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="717">
+      <c r="B5" t="s" s="716">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="717">
+      <c r="C5" t="s" s="716">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="717">
+      <c r="D5" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="717">
+      <c r="E5" t="s" s="716">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="717">
+      <c r="F5" t="s" s="716">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="717">
+      <c r="G5" t="s" s="716">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="717">
+      <c r="H5" t="s" s="716">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="717">
+      <c r="I5" t="s" s="716">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="718">
-        <v>0.7409596291245027</v>
-      </c>
-      <c r="B6" t="n" s="719">
-        <v>0.7545389035270711</v>
-      </c>
-      <c r="C6" t="n" s="720">
-        <v>0.8719749705585391</v>
-      </c>
-      <c r="D6" t="n" s="721">
-        <v>0.23512111758652077</v>
-      </c>
-      <c r="E6" t="n" s="722">
-        <v>3.0739653426517104</v>
-      </c>
-      <c r="F6" t="n" s="723">
-        <v>0.03978963686284778</v>
-      </c>
-      <c r="G6" t="n" s="724">
-        <v>2.4346938775510205</v>
-      </c>
-      <c r="H6" t="n" s="725">
-        <v>0.6453804185938687</v>
-      </c>
-      <c r="I6" t="n" s="726">
-        <v>0.1749070007336067</v>
+      <c r="A6" t="n" s="717">
+        <v>0.6984039101732212</v>
+      </c>
+      <c r="B6" t="n" s="718">
+        <v>0.7455462068838187</v>
+      </c>
+      <c r="C6" t="n" s="719">
+        <v>0.8571605268989874</v>
+      </c>
+      <c r="D6" t="n" s="720">
+        <v>0.24559848274317644</v>
+      </c>
+      <c r="E6" t="n" s="721">
+        <v>2.929986610745506</v>
+      </c>
+      <c r="F6" t="n" s="722">
+        <v>0.045242782913940204</v>
+      </c>
+      <c r="G6" t="n" s="723">
+        <v>1.8526077097505669</v>
+      </c>
+      <c r="H6" t="n" s="724">
+        <v>0.6068581595500034</v>
+      </c>
+      <c r="I6" t="n" s="725">
+        <v>0.16090330738104686</v>
       </c>
     </row>
     <row r="7">
@@ -7373,325 +7355,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="730">
+      <c r="A9" t="s" s="729">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="744">
+      <c r="B10" t="s" s="743">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="744">
+      <c r="C10" t="s" s="743">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="744">
+      <c r="D10" t="s" s="743">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="744">
+      <c r="E10" t="s" s="743">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="744">
+      <c r="F10" t="s" s="743">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="744">
+      <c r="G10" t="s" s="743">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="744">
+      <c r="H10" t="s" s="743">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="744">
+      <c r="I10" t="s" s="743">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="740">
+      <c r="A11" t="s" s="739">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="744">
+        <v>0.6882137855589182</v>
+      </c>
+      <c r="C11" t="n" s="745">
+        <v>0.7010640457867567</v>
+      </c>
+      <c r="D11" t="n" s="746">
+        <v>0.8183199610793993</v>
+      </c>
+      <c r="E11" t="n" s="747">
+        <v>0.2266943671259063</v>
+      </c>
+      <c r="F11" t="n" s="748">
+        <v>2.345198146646018</v>
+      </c>
+      <c r="G11" t="n" s="749">
+        <v>0.048036228570523254</v>
+      </c>
+      <c r="H11" t="n" s="750">
+        <v>0.05131339596354248</v>
+      </c>
+      <c r="I11" t="n" s="751">
+        <v>0.16600273483053385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="739">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="744">
+        <v>0.6616095854176006</v>
+      </c>
+      <c r="C12" t="n" s="745">
+        <v>0.6970493047906482</v>
+      </c>
+      <c r="D12" t="n" s="746">
+        <v>0.8111912708665423</v>
+      </c>
+      <c r="E12" t="n" s="747">
+        <v>0.22336635565859453</v>
+      </c>
+      <c r="F12" t="n" s="748">
+        <v>2.300867156977335</v>
+      </c>
+      <c r="G12" t="n" s="749">
+        <v>0.04970172605931331</v>
+      </c>
+      <c r="H12" t="n" s="750">
+        <v>0.04935862257508488</v>
+      </c>
+      <c r="I12" t="n" s="751">
+        <v>0.16980757328411977</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="739">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="744">
+        <v>0.6639679870965072</v>
+      </c>
+      <c r="C13" t="n" s="745">
+        <v>0.6974294671021356</v>
+      </c>
+      <c r="D13" t="n" s="746">
+        <v>0.8098282090194467</v>
+      </c>
+      <c r="E13" t="n" s="747">
+        <v>0.22367891902026887</v>
+      </c>
+      <c r="F13" t="n" s="748">
+        <v>2.305014504956965</v>
+      </c>
+      <c r="G13" t="n" s="749">
+        <v>0.0490500449692137</v>
+      </c>
+      <c r="H13" t="n" s="750">
+        <v>0.04898332145020356</v>
+      </c>
+      <c r="I13" t="n" s="751">
+        <v>0.16980757328411977</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="739">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="745">
-        <v>0.7181061339895803</v>
-      </c>
-      <c r="C11" t="n" s="746">
-        <v>0.7290545541062193</v>
-      </c>
-      <c r="D11" t="n" s="747">
-        <v>0.8512124467827837</v>
-      </c>
-      <c r="E11" t="n" s="748">
-        <v>0.2301625645865495</v>
-      </c>
-      <c r="F11" t="n" s="749">
-        <v>2.6907798789577453</v>
-      </c>
-      <c r="G11" t="n" s="750">
-        <v>0.043697332794705585</v>
-      </c>
-      <c r="H11" t="n" s="751">
-        <v>0.04809139733565017</v>
-      </c>
-      <c r="I11" t="n" s="752">
-        <v>0.16600273483053382</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="740">
+      <c r="B14" t="n" s="744">
+        <v>0.6819026253583087</v>
+      </c>
+      <c r="C14" t="n" s="745">
+        <v>0.7402496594413859</v>
+      </c>
+      <c r="D14" t="n" s="746">
+        <v>0.8507048110874241</v>
+      </c>
+      <c r="E14" t="n" s="747">
+        <v>0.26266265706632586</v>
+      </c>
+      <c r="F14" t="n" s="748">
+        <v>2.8498505828689944</v>
+      </c>
+      <c r="G14" t="n" s="749">
+        <v>0.04824191536175756</v>
+      </c>
+      <c r="H14" t="n" s="750">
+        <v>0.08444451462127812</v>
+      </c>
+      <c r="I14" t="n" s="751">
+        <v>0.16980757328411977</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="739">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="745">
-        <v>0.7056047313768657</v>
-      </c>
-      <c r="C12" t="n" s="746">
-        <v>0.7158376601894694</v>
-      </c>
-      <c r="D12" t="n" s="747">
-        <v>0.8464510702709006</v>
-      </c>
-      <c r="E12" t="n" s="748">
-        <v>0.2186899888321069</v>
-      </c>
-      <c r="F12" t="n" s="749">
-        <v>2.5191151672905163</v>
-      </c>
-      <c r="G12" t="n" s="750">
-        <v>0.045477366119225766</v>
-      </c>
-      <c r="H12" t="n" s="751">
-        <v>0.049340808754624814</v>
-      </c>
-      <c r="I12" t="n" s="752">
-        <v>0.14463199058533177</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="740">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="745">
-        <v>0.7094147450351691</v>
-      </c>
-      <c r="C13" t="n" s="746">
-        <v>0.7227684003701281</v>
-      </c>
-      <c r="D13" t="n" s="747">
-        <v>0.8330858327639208</v>
-      </c>
-      <c r="E13" t="n" s="748">
-        <v>0.2246120148924183</v>
-      </c>
-      <c r="F13" t="n" s="749">
-        <v>2.6070924141947973</v>
-      </c>
-      <c r="G13" t="n" s="750">
-        <v>0.04465770525918935</v>
-      </c>
-      <c r="H13" t="n" s="751">
-        <v>0.044041728267733136</v>
-      </c>
-      <c r="I13" t="n" s="752">
-        <v>0.16600273483053382</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="740">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="745">
-        <v>0.7096694946814337</v>
-      </c>
-      <c r="C14" t="n" s="746">
-        <v>0.7238070507251423</v>
-      </c>
-      <c r="D14" t="n" s="747">
-        <v>0.833332347309535</v>
-      </c>
-      <c r="E14" t="n" s="748">
-        <v>0.2255171271184471</v>
-      </c>
-      <c r="F14" t="n" s="749">
-        <v>2.6206572348262025</v>
-      </c>
-      <c r="G14" t="n" s="750">
-        <v>0.04458721597892279</v>
-      </c>
-      <c r="H14" t="n" s="751">
-        <v>0.04547728031508748</v>
-      </c>
-      <c r="I14" t="n" s="752">
-        <v>0.16600273483053382</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="740">
+      <c r="B15" t="n" s="744">
+        <v>0.6663179417750097</v>
+      </c>
+      <c r="C15" t="n" s="745">
+        <v>0.7249127624397139</v>
+      </c>
+      <c r="D15" t="n" s="746">
+        <v>0.8432262080895853</v>
+      </c>
+      <c r="E15" t="n" s="747">
+        <v>0.24778169276826992</v>
+      </c>
+      <c r="F15" t="n" s="748">
+        <v>2.6352104476706146</v>
+      </c>
+      <c r="G15" t="n" s="749">
+        <v>0.05025452503764976</v>
+      </c>
+      <c r="H15" t="n" s="750">
+        <v>0.08792119915165006</v>
+      </c>
+      <c r="I15" t="n" s="751">
+        <v>0.15517275853351065</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="739">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="744">
+        <v>0.6985131785109767</v>
+      </c>
+      <c r="C16" t="n" s="745">
+        <v>0.7415279018525345</v>
+      </c>
+      <c r="D16" t="n" s="746">
+        <v>0.8703482381671257</v>
+      </c>
+      <c r="E16" t="n" s="747">
+        <v>0.2639542464992939</v>
+      </c>
+      <c r="F16" t="n" s="748">
+        <v>2.8688895519758275</v>
+      </c>
+      <c r="G16" t="n" s="749">
+        <v>0.045769507702519203</v>
+      </c>
+      <c r="H16" t="n" s="750">
+        <v>0.09167259081305988</v>
+      </c>
+      <c r="I16" t="n" s="751">
+        <v>0.14903451326570905</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="739">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="744">
+        <v>0.7132925331153056</v>
+      </c>
+      <c r="C17" t="n" s="745">
+        <v>0.764947214070747</v>
+      </c>
+      <c r="D17" t="n" s="746">
+        <v>0.8775128509361606</v>
+      </c>
+      <c r="E17" t="n" s="747">
+        <v>0.289164600119424</v>
+      </c>
+      <c r="F17" t="n" s="748">
+        <v>3.2543635296498197</v>
+      </c>
+      <c r="G17" t="n" s="749">
+        <v>0.043674397791774865</v>
+      </c>
+      <c r="H17" t="n" s="750">
+        <v>0.07965891625859028</v>
+      </c>
+      <c r="I17" t="n" s="751">
+        <v>0.1761193177015501</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="739">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="745">
-        <v>0.7060125165475457</v>
-      </c>
-      <c r="C15" t="n" s="746">
-        <v>0.725516225489064</v>
-      </c>
-      <c r="D15" t="n" s="747">
-        <v>0.8313631878204388</v>
-      </c>
-      <c r="E15" t="n" s="748">
-        <v>0.22701680011199146</v>
-      </c>
-      <c r="F15" t="n" s="749">
-        <v>2.643202596516896</v>
-      </c>
-      <c r="G15" t="n" s="750">
-        <v>0.04538764276725039</v>
-      </c>
-      <c r="H15" t="n" s="751">
-        <v>0.044748051634631296</v>
-      </c>
-      <c r="I15" t="n" s="752">
+      <c r="B18" t="n" s="744">
+        <v>0.6357338401509893</v>
+      </c>
+      <c r="C18" t="n" s="745">
+        <v>0.712670731205689</v>
+      </c>
+      <c r="D18" t="n" s="746">
+        <v>0.8110590440131072</v>
+      </c>
+      <c r="E18" t="n" s="747">
+        <v>0.23666508680995785</v>
+      </c>
+      <c r="F18" t="n" s="748">
+        <v>2.4803276540402335</v>
+      </c>
+      <c r="G18" t="n" s="749">
+        <v>0.055211426614725466</v>
+      </c>
+      <c r="H18" t="n" s="750">
+        <v>0.07844337357027023</v>
+      </c>
+      <c r="I18" t="n" s="751">
         <v>0.15476506211324526</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="740">
+    <row r="19">
+      <c r="A19" t="s" s="739">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="745">
-        <v>0.7080314876197266</v>
-      </c>
-      <c r="C16" t="n" s="746">
-        <v>0.7287063499531129</v>
-      </c>
-      <c r="D16" t="n" s="747">
-        <v>0.8373924240217938</v>
-      </c>
-      <c r="E16" t="n" s="748">
-        <v>0.22985050033822668</v>
-      </c>
-      <c r="F16" t="n" s="749">
-        <v>2.686042779944065</v>
-      </c>
-      <c r="G16" t="n" s="750">
-        <v>0.045077015402627776</v>
-      </c>
-      <c r="H16" t="n" s="751">
-        <v>0.045855828504818695</v>
-      </c>
-      <c r="I16" t="n" s="752">
-        <v>0.1718529913488267</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="740">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="745">
-        <v>0.7270548665730944</v>
-      </c>
-      <c r="C17" t="n" s="746">
-        <v>0.7432896877307736</v>
-      </c>
-      <c r="D17" t="n" s="747">
-        <v>0.8175577615253604</v>
-      </c>
-      <c r="E17" t="n" s="748">
-        <v>0.24340765229526984</v>
-      </c>
-      <c r="F17" t="n" s="749">
-        <v>2.8954414848408763</v>
-      </c>
-      <c r="G17" t="n" s="750">
-        <v>0.04173355601566787</v>
-      </c>
-      <c r="H17" t="n" s="751">
-        <v>0.035709251539544226</v>
-      </c>
-      <c r="I17" t="n" s="752">
-        <v>0.19610544766007693</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="740">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="745">
-        <v>0.7300461437046804</v>
-      </c>
-      <c r="C18" t="n" s="746">
-        <v>0.743552272922235</v>
-      </c>
-      <c r="D18" t="n" s="747">
-        <v>0.8170063390742466</v>
-      </c>
-      <c r="E18" t="n" s="748">
-        <v>0.24366126081629794</v>
-      </c>
-      <c r="F18" t="n" s="749">
-        <v>2.89943015442192</v>
-      </c>
-      <c r="G18" t="n" s="750">
-        <v>0.04111548358009703</v>
-      </c>
-      <c r="H18" t="n" s="751">
-        <v>0.035416150426054276</v>
-      </c>
-      <c r="I18" t="n" s="752">
-        <v>0.19610544766007693</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="740">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="745">
-        <v>0.7423206755000328</v>
-      </c>
-      <c r="C19" t="n" s="746">
-        <v>0.7496207710161366</v>
-      </c>
-      <c r="D19" t="n" s="747">
-        <v>0.883841482018966</v>
-      </c>
-      <c r="E19" t="n" s="748">
-        <v>0.249621154134357</v>
-      </c>
-      <c r="F19" t="n" s="749">
-        <v>2.9939415264532525</v>
-      </c>
-      <c r="G19" t="n" s="750">
-        <v>0.04014535218802897</v>
-      </c>
-      <c r="H19" t="n" s="751">
-        <v>0.05528697351351024</v>
-      </c>
-      <c r="I19" t="n" s="752">
-        <v>0.15476506211324526</v>
+      <c r="B19" t="n" s="744">
+        <v>0.6365735755220453</v>
+      </c>
+      <c r="C19" t="n" s="745">
+        <v>0.7123909534304177</v>
+      </c>
+      <c r="D19" t="n" s="746">
+        <v>0.8131104403236283</v>
+      </c>
+      <c r="E19" t="n" s="747">
+        <v>0.23641841962054702</v>
+      </c>
+      <c r="F19" t="n" s="748">
+        <v>2.476942091799141</v>
+      </c>
+      <c r="G19" t="n" s="749">
+        <v>0.05510964757406145</v>
+      </c>
+      <c r="H19" t="n" s="750">
+        <v>0.08038640955107877</v>
+      </c>
+      <c r="I19" t="n" s="751">
+        <v>0.14802913261865233</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.7434347151757313</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.7584760976087316</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.883484902618614</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.25867211273954294</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>3.1403769568943156</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.04009776242960284</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.04964115023065939</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.18075725725189962</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7700,595 +7658,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="755">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.5528817225012078</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.6764218824555419</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.7113759250753826</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.5164113229426216</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.27521198531482954</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="765">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C25" t="n" s="771">
+        <v>0.5800684011107211</v>
+      </c>
+      <c r="D25" t="n" s="772">
+        <v>0.6944613941967333</v>
+      </c>
+      <c r="E25" t="n" s="773">
+        <v>0.7434683164894794</v>
+      </c>
+      <c r="F25" t="n" s="774">
+        <v>0.4410034455542156</v>
+      </c>
+      <c r="G25" t="n" s="775">
+        <v>0.2755102040816326</v>
+      </c>
+      <c r="H25" t="n" s="776">
+        <v>0.982114405800246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="765">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C26" t="n" s="771">
+        <v>0.5797218016102417</v>
+      </c>
+      <c r="D26" t="n" s="772">
+        <v>0.6927671420920838</v>
+      </c>
+      <c r="E26" t="n" s="773">
+        <v>0.741828152938106</v>
+      </c>
+      <c r="F26" t="n" s="774">
+        <v>0.4165876542063404</v>
+      </c>
+      <c r="G26" t="n" s="775">
+        <v>0.3163265306122449</v>
+      </c>
+      <c r="H26" t="n" s="776">
+        <v>1.1269605027474512</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="765">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C27" t="n" s="771">
+        <v>0.4673525082507889</v>
+      </c>
+      <c r="D27" t="n" s="772">
+        <v>0.4814554903430501</v>
+      </c>
+      <c r="E27" t="n" s="773">
+        <v>0.38349865642684744</v>
+      </c>
+      <c r="F27" t="n" s="774">
+        <v>0.3251939490152417</v>
+      </c>
+      <c r="G27" t="n" s="775">
+        <v>3.683673469387755</v>
+      </c>
+      <c r="H27" t="n" s="776">
+        <v>0.892083611904779</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="765">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C28" t="n" s="771">
+        <v>0.5564471149643545</v>
+      </c>
+      <c r="D28" t="n" s="772">
+        <v>0.562117871711546</v>
+      </c>
+      <c r="E28" t="n" s="773">
+        <v>0.47633417366907593</v>
+      </c>
+      <c r="F28" t="n" s="774">
+        <v>0.41619664663800116</v>
+      </c>
+      <c r="G28" t="n" s="775">
+        <v>4.112244897959184</v>
+      </c>
+      <c r="H28" t="n" s="776">
+        <v>0.9619852010481016</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="765">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C29" t="n" s="771">
+        <v>0.5496764687277638</v>
+      </c>
+      <c r="D29" t="n" s="772">
+        <v>0.47445441989312</v>
+      </c>
+      <c r="E29" t="n" s="773">
+        <v>0.3304727163801146</v>
+      </c>
+      <c r="F29" t="n" s="774">
+        <v>0.3037331941250906</v>
+      </c>
+      <c r="G29" t="n" s="775">
+        <v>1.4591836734693877</v>
+      </c>
+      <c r="H29" t="n" s="776">
+        <v>1.547651145771891</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="765">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C30" t="n" s="771">
+        <v>0.4130033528336956</v>
+      </c>
+      <c r="D30" t="n" s="772">
+        <v>0.33780150430167216</v>
+      </c>
+      <c r="E30" t="n" s="773">
+        <v>0.1825130895176044</v>
+      </c>
+      <c r="F30" t="n" s="774">
+        <v>0.19088133599559368</v>
+      </c>
+      <c r="G30" t="n" s="775">
+        <v>2.622448979591837</v>
+      </c>
+      <c r="H30" t="n" s="776">
+        <v>1.2884523291866785</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="765">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C31" t="n" s="771">
+        <v>0.6932711970413251</v>
+      </c>
+      <c r="D31" t="n" s="772">
+        <v>0.6223755197626076</v>
+      </c>
+      <c r="E31" t="n" s="773">
+        <v>0.6072430971999752</v>
+      </c>
+      <c r="F31" t="n" s="774">
+        <v>0.5327769025628472</v>
+      </c>
+      <c r="G31" t="n" s="775">
+        <v>2.173469387755102</v>
+      </c>
+      <c r="H31" t="n" s="776">
+        <v>1.3083830439801942</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="765">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="770">
+        <v>98.0</v>
+      </c>
+      <c r="C32" t="n" s="771">
+        <v>0.6865421480707267</v>
+      </c>
+      <c r="D32" t="n" s="772">
+        <v>0.6237125811589546</v>
+      </c>
+      <c r="E32" t="n" s="773">
+        <v>0.6057016672722986</v>
+      </c>
+      <c r="F32" t="n" s="774">
+        <v>0.5357589653115701</v>
+      </c>
+      <c r="G32" t="n" s="775">
+        <v>1.9489795918367347</v>
+      </c>
+      <c r="H32" t="n" s="776">
+        <v>1.22997317026804</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="770">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="770">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="770">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="770">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="770">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="766">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="780">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="790">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="795">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="C39" t="n" s="796">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="F39" t="n" s="799">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="G39" t="n" s="800">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="H39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="790">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C25" t="n" s="772">
-        <v>0.5457049650703132</v>
-      </c>
-      <c r="D25" t="n" s="773">
-        <v>0.5901975816477584</v>
-      </c>
-      <c r="E25" t="n" s="774">
-        <v>0.5383084574604547</v>
-      </c>
-      <c r="F25" t="n" s="775">
-        <v>0.4373045433678673</v>
-      </c>
-      <c r="G25" t="n" s="776">
-        <v>3.683673469387755</v>
-      </c>
-      <c r="H25" t="n" s="777">
-        <v>0.892083611904779</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="766">
+      <c r="B40" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="796">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="D40" t="n" s="797">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="E40" t="n" s="798">
+        <v>0.29591836734693877</v>
+      </c>
+      <c r="F40" t="n" s="799">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="n" s="800">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="790">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C26" t="n" s="772">
-        <v>0.6313025637328844</v>
-      </c>
-      <c r="D26" t="n" s="773">
-        <v>0.6641850955279252</v>
-      </c>
-      <c r="E26" t="n" s="774">
-        <v>0.6192418453838165</v>
-      </c>
-      <c r="F26" t="n" s="775">
-        <v>0.528056648767775</v>
-      </c>
-      <c r="G26" t="n" s="776">
-        <v>4.112244897959184</v>
-      </c>
-      <c r="H26" t="n" s="777">
-        <v>0.9619852010481016</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="766">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C27" t="n" s="772">
-        <v>0.6036144465529742</v>
-      </c>
-      <c r="D27" t="n" s="773">
-        <v>0.6259934989140326</v>
-      </c>
-      <c r="E27" t="n" s="774">
-        <v>0.6065417518468164</v>
-      </c>
-      <c r="F27" t="n" s="775">
-        <v>0.4795660147181611</v>
-      </c>
-      <c r="G27" t="n" s="776">
-        <v>3.663265306122449</v>
-      </c>
-      <c r="H27" t="n" s="777">
-        <v>1.083559212993123</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="766">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C28" t="n" s="772">
-        <v>0.608099466315721</v>
-      </c>
-      <c r="D28" t="n" s="773">
-        <v>0.6201563613069452</v>
-      </c>
-      <c r="E28" t="n" s="774">
-        <v>0.5999129474505587</v>
-      </c>
-      <c r="F28" t="n" s="775">
-        <v>0.4680886251792535</v>
-      </c>
-      <c r="G28" t="n" s="776">
-        <v>4.091836734693878</v>
-      </c>
-      <c r="H28" t="n" s="777">
-        <v>1.2106634007753174</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="766">
+      <c r="B41" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="D41" t="n" s="797">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="E41" t="n" s="798">
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="F41" t="n" s="799">
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="G41" t="n" s="800">
+        <v>0.45918367346938777</v>
+      </c>
+      <c r="H41" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="790">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="795">
+        <v>0.46938775510204084</v>
+      </c>
+      <c r="C42" t="n" s="796">
+        <v>0.09183673469387756</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.05102040816326531</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="G42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="790">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="795">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="C43" t="n" s="796">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="D43" t="n" s="797">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E43" t="n" s="798">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="F43" t="n" s="799">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G43" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="790">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C29" t="n" s="772">
-        <v>0.6337680047072454</v>
-      </c>
-      <c r="D29" t="n" s="773">
-        <v>0.6104848560756454</v>
-      </c>
-      <c r="E29" t="n" s="774">
-        <v>0.598314246767271</v>
-      </c>
-      <c r="F29" t="n" s="775">
-        <v>0.4867664230237286</v>
-      </c>
-      <c r="G29" t="n" s="776">
-        <v>2.173469387755102</v>
-      </c>
-      <c r="H29" t="n" s="777">
-        <v>1.3083830439801942</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="766">
+      <c r="B44" t="n" s="795">
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="C44" t="n" s="796">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="D44" t="n" s="797">
+        <v>0.3163265306122449</v>
+      </c>
+      <c r="E44" t="n" s="798">
+        <v>0.23469387755102042</v>
+      </c>
+      <c r="F44" t="n" s="799">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="G44" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="790">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C30" t="n" s="772">
-        <v>0.61784803177922</v>
-      </c>
-      <c r="D30" t="n" s="773">
-        <v>0.592210107727209</v>
-      </c>
-      <c r="E30" t="n" s="774">
-        <v>0.5732426485007638</v>
-      </c>
-      <c r="F30" t="n" s="775">
-        <v>0.4774540594719862</v>
-      </c>
-      <c r="G30" t="n" s="776">
-        <v>1.9489795918367347</v>
-      </c>
-      <c r="H30" t="n" s="777">
-        <v>1.22997317026804</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="766">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C31" t="n" s="772">
-        <v>0.48246893568544214</v>
-      </c>
-      <c r="D31" t="n" s="773">
-        <v>0.5047790033207862</v>
-      </c>
-      <c r="E31" t="n" s="774">
-        <v>0.5340370915914838</v>
-      </c>
-      <c r="F31" t="n" s="775">
-        <v>0.3528324953112304</v>
-      </c>
-      <c r="G31" t="n" s="776">
-        <v>0.2755102040816326</v>
-      </c>
-      <c r="H31" t="n" s="777">
-        <v>0.982114405800246</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="766">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C32" t="n" s="772">
-        <v>0.48227573057593087</v>
-      </c>
-      <c r="D32" t="n" s="773">
-        <v>0.5031434626740023</v>
-      </c>
-      <c r="E32" t="n" s="774">
-        <v>0.5323550510380533</v>
-      </c>
-      <c r="F32" t="n" s="775">
-        <v>0.3313570825722275</v>
-      </c>
-      <c r="G32" t="n" s="776">
-        <v>0.3163265306122449</v>
-      </c>
-      <c r="H32" t="n" s="777">
-        <v>1.1269605027474512</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.515439025312422</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.46470765723393326</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.3296214764865226</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.30620447268711576</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>1.4591836734693877</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.547651145771891</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>98.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.43867920221808127</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.4063373365872646</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.28105581210792213</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.25705876645576453</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>2.622448979591837</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>1.2884523291866785</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="795">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="795">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="795">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="795">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="795">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="791">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="796">
+      <c r="B45" t="n" s="795">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="C45" t="n" s="796">
+        <v>0.09183673469387756</v>
+      </c>
+      <c r="D45" t="n" s="797">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F45" t="n" s="799">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="G45" t="n" s="800">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="797">
-        <v>0.04081632653061224</v>
-      </c>
-      <c r="D39" t="n" s="798">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="E39" t="n" s="799">
-        <v>0.29591836734693877</v>
-      </c>
-      <c r="F39" t="n" s="800">
-        <v>0.5</v>
-      </c>
-      <c r="G39" t="n" s="801">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H39" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="791">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="797">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D40" t="n" s="798">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="E40" t="n" s="799">
-        <v>0.25510204081632654</v>
-      </c>
-      <c r="F40" t="n" s="800">
-        <v>0.24489795918367346</v>
-      </c>
-      <c r="G40" t="n" s="801">
-        <v>0.45918367346938777</v>
-      </c>
-      <c r="H40" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="791">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="796">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="C41" t="n" s="797">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="D41" t="n" s="798">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="E41" t="n" s="799">
-        <v>0.25510204081632654</v>
-      </c>
-      <c r="F41" t="n" s="800">
-        <v>0.4897959183673469</v>
-      </c>
-      <c r="G41" t="n" s="801">
-        <v>0.17346938775510204</v>
-      </c>
-      <c r="H41" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="791">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="796">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="C42" t="n" s="797">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D42" t="n" s="798">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="E42" t="n" s="799">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F42" t="n" s="800">
-        <v>0.11224489795918367</v>
-      </c>
-      <c r="G42" t="n" s="801">
-        <v>0.5510204081632653</v>
-      </c>
-      <c r="H42" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="791">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="796">
-        <v>0.16326530612244897</v>
-      </c>
-      <c r="C43" t="n" s="797">
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.3163265306122449</v>
-      </c>
-      <c r="E43" t="n" s="799">
-        <v>0.23469387755102042</v>
-      </c>
-      <c r="F43" t="n" s="800">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="791">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="796">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="C44" t="n" s="797">
-        <v>0.09183673469387756</v>
-      </c>
-      <c r="D44" t="n" s="798">
-        <v>0.4489795918367347</v>
-      </c>
-      <c r="E44" t="n" s="799">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F44" t="n" s="800">
-        <v>0.1326530612244898</v>
-      </c>
-      <c r="G44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="791">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="796">
-        <v>0.9183673469387755</v>
-      </c>
-      <c r="C45" t="n" s="797">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.9183673469387755</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.46938775510204084</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.09183673469387756</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.05102040816326531</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.15306122448979592</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.030612244897959183</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.5306122448979592</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
+      <c r="H45" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
